--- a/tap/gyakorlatok/6. Optimalizálási feladatok, termelés_diák.xlsx
+++ b/tap/gyakorlatok/6. Optimalizálási feladatok, termelés_diák.xlsx
@@ -1,160 +1,327 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otthon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14B2709-A978-42CE-9432-E4A7EA95477E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="Eredményjelentés 1" sheetId="12" r:id="rId2"/>
+    <sheet name="Eredményjelentés 1" sheetId="12" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId2"/>
     <sheet name="Munka1" sheetId="11" r:id="rId3"/>
     <sheet name="2. Termelési feladat" sheetId="4" r:id="rId4"/>
-    <sheet name="Eredményjelentés 2" sheetId="14" r:id="rId5"/>
-    <sheet name="2" sheetId="13" r:id="rId6"/>
-    <sheet name="3. feladat" sheetId="7" r:id="rId7"/>
-    <sheet name="4. feladat" sheetId="8" r:id="rId8"/>
-    <sheet name="5. feladat" sheetId="9" r:id="rId9"/>
-    <sheet name="6. feladat" sheetId="10" r:id="rId10"/>
+    <sheet name="2" sheetId="13" r:id="rId5"/>
+    <sheet name="Eredményjelentés 2" sheetId="14" r:id="rId6"/>
+    <sheet name="Eredményjelentés 3" sheetId="15" r:id="rId7"/>
+    <sheet name="3. feladat" sheetId="7" r:id="rId8"/>
+    <sheet name="Eredményjelentés 6" sheetId="18" r:id="rId9"/>
+    <sheet name="4. feladat" sheetId="8" r:id="rId10"/>
+    <sheet name="Eredményjelentés 4" sheetId="16" r:id="rId11"/>
+    <sheet name="5. feladat" sheetId="9" r:id="rId12"/>
+    <sheet name="Eredményjelentés 5" sheetId="17" r:id="rId13"/>
+    <sheet name="6. feladat" sheetId="10" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'2'!$A$2:$B$2</definedName>
-    <definedName name="solver_adj" localSheetId="6" hidden="1">'3. feladat'!$B$17:$C$17</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'2'!$A$2:$B$2</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'3. feladat'!$F$17:$G$17</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">'4. feladat'!$K$13:$M$13</definedName>
+    <definedName name="solver_adj" localSheetId="11" hidden="1">'5. feladat'!$J$11:$M$11</definedName>
+    <definedName name="solver_adj" localSheetId="13" hidden="1">'6. feladat'!$I$11:$M$11</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Munka1!$A$2:$B$2</definedName>
-    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="13" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_drv" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'2'!$A$2</definedName>
-    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'3. feladat'!$B$18:$C$18</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'2'!$A$2</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'3. feladat'!$G$26</definedName>
+    <definedName name="solver_lhs1" localSheetId="9" hidden="1">'4. feladat'!$K$13:$M$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="11" hidden="1">'5. feladat'!$J$11:$M$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="13" hidden="1">'6. feladat'!$I$11:$M$11</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">Munka1!$A$12</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'2'!$B$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'3. feladat'!$B$19:$C$19</definedName>
+    <definedName name="solver_lhs10" localSheetId="11" hidden="1">'5. feladat'!$M$30</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'2'!$B$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'3. feladat'!$G$27</definedName>
+    <definedName name="solver_lhs2" localSheetId="9" hidden="1">'4. feladat'!$M$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="11" hidden="1">'5. feladat'!$M$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="13" hidden="1">'6. feladat'!$M$23</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Munka1!$A$13</definedName>
-    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'2'!$B$11</definedName>
-    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'3. feladat'!$B$20:$C$20</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'2'!$B$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="7" hidden="1">'3. feladat'!$G$28</definedName>
+    <definedName name="solver_lhs3" localSheetId="9" hidden="1">'4. feladat'!$M$23</definedName>
+    <definedName name="solver_lhs3" localSheetId="11" hidden="1">'5. feladat'!$M$23</definedName>
+    <definedName name="solver_lhs3" localSheetId="13" hidden="1">'6. feladat'!$M$24</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">Munka1!$A$14</definedName>
-    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'2'!$B$12</definedName>
-    <definedName name="solver_lhs4" localSheetId="6" hidden="1">'3. feladat'!$B$21:$C$21</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'2'!$B$12</definedName>
+    <definedName name="solver_lhs4" localSheetId="7" hidden="1">'3. feladat'!$G$29</definedName>
+    <definedName name="solver_lhs4" localSheetId="9" hidden="1">'4. feladat'!$M$24</definedName>
+    <definedName name="solver_lhs4" localSheetId="11" hidden="1">'5. feladat'!$M$24</definedName>
+    <definedName name="solver_lhs4" localSheetId="13" hidden="1">'6. feladat'!$M$25</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">Munka1!$A$15</definedName>
-    <definedName name="solver_lhs5" localSheetId="5" hidden="1">'2'!$B$13</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'2'!$B$13</definedName>
+    <definedName name="solver_lhs5" localSheetId="7" hidden="1">'3. feladat'!$G$30</definedName>
+    <definedName name="solver_lhs5" localSheetId="9" hidden="1">'4. feladat'!$M$25</definedName>
+    <definedName name="solver_lhs5" localSheetId="11" hidden="1">'5. feladat'!$M$25</definedName>
+    <definedName name="solver_lhs5" localSheetId="13" hidden="1">'6. feladat'!$M$26</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">Munka1!$A$16</definedName>
-    <definedName name="solver_lhs6" localSheetId="5" hidden="1">'2'!$B$14</definedName>
-    <definedName name="solver_lhs7" localSheetId="5" hidden="1">'2'!$B$2</definedName>
-    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">'2'!$B$14</definedName>
+    <definedName name="solver_lhs6" localSheetId="7" hidden="1">'3. feladat'!$G$31</definedName>
+    <definedName name="solver_lhs6" localSheetId="9" hidden="1">'4. feladat'!$M$26</definedName>
+    <definedName name="solver_lhs6" localSheetId="11" hidden="1">'5. feladat'!$M$26</definedName>
+    <definedName name="solver_lhs6" localSheetId="13" hidden="1">'6. feladat'!$M$27</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">'2'!$B$2</definedName>
+    <definedName name="solver_lhs7" localSheetId="9" hidden="1">'4. feladat'!$M$27</definedName>
+    <definedName name="solver_lhs7" localSheetId="11" hidden="1">'5. feladat'!$M$27</definedName>
+    <definedName name="solver_lhs7" localSheetId="13" hidden="1">'6. feladat'!$M$28:$M$32</definedName>
+    <definedName name="solver_lhs8" localSheetId="9" hidden="1">'4. feladat'!$M$28</definedName>
+    <definedName name="solver_lhs8" localSheetId="11" hidden="1">'5. feladat'!$M$28</definedName>
+    <definedName name="solver_lhs9" localSheetId="11" hidden="1">'5. feladat'!$M$29</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="11" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="13" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="11" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="13" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">7</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">8</definedName>
+    <definedName name="solver_num" localSheetId="11" hidden="1">10</definedName>
+    <definedName name="solver_num" localSheetId="13" hidden="1">7</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">5</definedName>
-    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'2'!$D$18</definedName>
-    <definedName name="solver_opt" localSheetId="6" hidden="1">'3. feladat'!$D$23</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'2'!$D$18</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'3. feladat'!$I$34</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">'4. feladat'!$O$30</definedName>
+    <definedName name="solver_opt" localSheetId="11" hidden="1">'5. feladat'!$B$19</definedName>
+    <definedName name="solver_opt" localSheetId="13" hidden="1">'6. feladat'!$O$33</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Munka1!$D$18</definedName>
-    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="11" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="13" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rbv" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">4</definedName>
-    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="9" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="11" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="13" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="11" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel6" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="5" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">egész</definedName>
-    <definedName name="solver_rhs1" localSheetId="6" hidden="1">16</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel7" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="11" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="13" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="11" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="11" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">"egész"</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">16</definedName>
+    <definedName name="solver_rhs1" localSheetId="9" hidden="1">"egész"</definedName>
+    <definedName name="solver_rhs1" localSheetId="11" hidden="1">"egész"</definedName>
+    <definedName name="solver_rhs1" localSheetId="13" hidden="1">"egész"</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">7</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_rhs2" localSheetId="6" hidden="1">10</definedName>
+    <definedName name="solver_rhs10" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">10</definedName>
+    <definedName name="solver_rhs2" localSheetId="9" hidden="1">200</definedName>
+    <definedName name="solver_rhs2" localSheetId="11" hidden="1">50</definedName>
+    <definedName name="solver_rhs2" localSheetId="13" hidden="1">300</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">40</definedName>
-    <definedName name="solver_rhs3" localSheetId="5" hidden="1">80</definedName>
-    <definedName name="solver_rhs3" localSheetId="6" hidden="1">16</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">80</definedName>
+    <definedName name="solver_rhs3" localSheetId="7" hidden="1">16</definedName>
+    <definedName name="solver_rhs3" localSheetId="9" hidden="1">460</definedName>
+    <definedName name="solver_rhs3" localSheetId="11" hidden="1">100</definedName>
+    <definedName name="solver_rhs3" localSheetId="13" hidden="1">400</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_rhs4" localSheetId="5" hidden="1">40</definedName>
-    <definedName name="solver_rhs4" localSheetId="6" hidden="1">12</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">40</definedName>
+    <definedName name="solver_rhs4" localSheetId="7" hidden="1">12</definedName>
+    <definedName name="solver_rhs4" localSheetId="9" hidden="1">245</definedName>
+    <definedName name="solver_rhs4" localSheetId="11" hidden="1">2000</definedName>
+    <definedName name="solver_rhs4" localSheetId="13" hidden="1">120</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs5" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="9" hidden="1">240</definedName>
+    <definedName name="solver_rhs5" localSheetId="11" hidden="1">500</definedName>
+    <definedName name="solver_rhs5" localSheetId="13" hidden="1">4000</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_rhs7" localSheetId="5" hidden="1">egész</definedName>
-    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="11" hidden="1">200</definedName>
+    <definedName name="solver_rhs6" localSheetId="13" hidden="1">100</definedName>
+    <definedName name="solver_rhs7" localSheetId="4" hidden="1">"egész"</definedName>
+    <definedName name="solver_rhs7" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_rhs9" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="13" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="11" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="13" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="11" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="13" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="13" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="11" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="13" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -166,8 +333,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -175,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="235">
   <si>
     <t>Döntési változók:</t>
   </si>
@@ -592,17 +757,309 @@
   </si>
   <si>
     <t>$B$14&gt;=0</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Munkalap: [6. Optimalizálási feladatok, termelés_diák.xlsx]3. feladat</t>
+  </si>
+  <si>
+    <t>Készült: 2024. 03. 31. 22:06:10</t>
+  </si>
+  <si>
+    <t>$I$34</t>
+  </si>
+  <si>
+    <t>$F$17</t>
+  </si>
+  <si>
+    <t>$G$17</t>
+  </si>
+  <si>
+    <t>$G$26</t>
+  </si>
+  <si>
+    <t>$G$26&lt;=16</t>
+  </si>
+  <si>
+    <t>$G$27</t>
+  </si>
+  <si>
+    <t>$G$27&lt;=10</t>
+  </si>
+  <si>
+    <t>$G$28</t>
+  </si>
+  <si>
+    <t>$G$28&lt;=16</t>
+  </si>
+  <si>
+    <t>$G$29</t>
+  </si>
+  <si>
+    <t>$G$29&lt;=12</t>
+  </si>
+  <si>
+    <t>$G$30</t>
+  </si>
+  <si>
+    <t>$G$30&gt;=0</t>
+  </si>
+  <si>
+    <t>$G$31</t>
+  </si>
+  <si>
+    <t>$G$31&gt;=0</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Munkalap: [6. Optimalizálási feladatok, termelés_diák.xlsx]5. feladat</t>
+  </si>
+  <si>
+    <t>Készült: 2024. 03. 31. 22:19:47</t>
+  </si>
+  <si>
+    <t>Eredmény: A Solver talált egy tűréshatáron belüli egész megoldást. Minden korlátozó feltétel teljesült.</t>
+  </si>
+  <si>
+    <t>Megoldási idő: 0,125 másodperc.</t>
+  </si>
+  <si>
+    <t>Közelítő lépések: 2 Részproblémák: 102</t>
+  </si>
+  <si>
+    <t>Maximális idő Korlátlan,  Közelítő lépések Korlátlan, Precision 0,000001, Automatikus léptékváltás</t>
+  </si>
+  <si>
+    <t>$O$31</t>
+  </si>
+  <si>
+    <t>$J$11</t>
+  </si>
+  <si>
+    <t>Norma óra 1.</t>
+  </si>
+  <si>
+    <t>$K$11</t>
+  </si>
+  <si>
+    <t>Norma óra 2.</t>
+  </si>
+  <si>
+    <t>$L$11</t>
+  </si>
+  <si>
+    <t>Norma óra 3.</t>
+  </si>
+  <si>
+    <t>$M$11</t>
+  </si>
+  <si>
+    <t>Norma óra 4.</t>
+  </si>
+  <si>
+    <t>$M$22</t>
+  </si>
+  <si>
+    <t>$M$22&lt;=50</t>
+  </si>
+  <si>
+    <t>$M$23</t>
+  </si>
+  <si>
+    <t>$M$23&lt;=100</t>
+  </si>
+  <si>
+    <t>$M$24</t>
+  </si>
+  <si>
+    <t>$M$24&lt;=2000</t>
+  </si>
+  <si>
+    <t>$M$25</t>
+  </si>
+  <si>
+    <t>$M$25&lt;=500</t>
+  </si>
+  <si>
+    <t>$M$26</t>
+  </si>
+  <si>
+    <t>$M$26&lt;=200</t>
+  </si>
+  <si>
+    <t>$M$27</t>
+  </si>
+  <si>
+    <t>$M$27&gt;=0</t>
+  </si>
+  <si>
+    <t>$M$28</t>
+  </si>
+  <si>
+    <t>$M$28&gt;=0</t>
+  </si>
+  <si>
+    <t>$M$29</t>
+  </si>
+  <si>
+    <t>$M$29&gt;=0</t>
+  </si>
+  <si>
+    <t>$M$30</t>
+  </si>
+  <si>
+    <t>$M$30&gt;=0</t>
+  </si>
+  <si>
+    <t>$J$11:$M$11=Egész</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Munkalap: [6. Optimalizálási feladatok, termelés_diák.xlsx]6. feladat</t>
+  </si>
+  <si>
+    <t>Készült: 2024. 03. 31. 22:32:55</t>
+  </si>
+  <si>
+    <t>Megoldási idő: 0,031 másodperc.</t>
+  </si>
+  <si>
+    <t>Közelítő lépések: 1 Részproblémák: 8</t>
+  </si>
+  <si>
+    <t>$O$33</t>
+  </si>
+  <si>
+    <t>$I$11</t>
+  </si>
+  <si>
+    <t>Szoknya 1.</t>
+  </si>
+  <si>
+    <t>Szoknya 2.</t>
+  </si>
+  <si>
+    <t>Szoknya 3.</t>
+  </si>
+  <si>
+    <t>Szoknya 4.</t>
+  </si>
+  <si>
+    <t>Szoknya 5.</t>
+  </si>
+  <si>
+    <t>$M$23&lt;=300</t>
+  </si>
+  <si>
+    <t>$M$24&lt;=400</t>
+  </si>
+  <si>
+    <t>$M$25&lt;=120</t>
+  </si>
+  <si>
+    <t>$M$26&lt;=4000</t>
+  </si>
+  <si>
+    <t>$M$27&lt;=100</t>
+  </si>
+  <si>
+    <t>$M$31</t>
+  </si>
+  <si>
+    <t>$M$31&gt;=0</t>
+  </si>
+  <si>
+    <t>$M$32</t>
+  </si>
+  <si>
+    <t>$M$32&gt;=0</t>
+  </si>
+  <si>
+    <t>$I$11:$M$11=Egész</t>
+  </si>
+  <si>
+    <t>Munkalap: [6. Optimalizálási feladatok, termelés_diák.xlsx]4. feladat</t>
+  </si>
+  <si>
+    <t>Készült: 2024. 03. 31. 22:33:24</t>
+  </si>
+  <si>
+    <t>Közelítő lépések: 1 Részproblémák: 2</t>
+  </si>
+  <si>
+    <t>$O$30</t>
+  </si>
+  <si>
+    <t>$K$13</t>
+  </si>
+  <si>
+    <t>1. termék 1.</t>
+  </si>
+  <si>
+    <t>$L$13</t>
+  </si>
+  <si>
+    <t>1. termék 2.</t>
+  </si>
+  <si>
+    <t>$M$13</t>
+  </si>
+  <si>
+    <t>1. termék 3.</t>
+  </si>
+  <si>
+    <t>Nyereség: 3.</t>
+  </si>
+  <si>
+    <t>$M$22&lt;=200</t>
+  </si>
+  <si>
+    <t>$M$23&lt;=460</t>
+  </si>
+  <si>
+    <t>$M$24&lt;=245</t>
+  </si>
+  <si>
+    <t>$M$25&lt;=240</t>
+  </si>
+  <si>
+    <t>$M$26&gt;=0</t>
+  </si>
+  <si>
+    <t>$K$13:$M$13=Egész</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;Ft&quot;"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="#,##0\ &quot;Ft&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +1133,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -701,7 +1167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -791,43 +1257,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -877,9 +1306,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -907,15 +1336,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -926,6 +1346,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,23 +1381,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="9" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="5" fillId="3" borderId="9" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bevitel" xfId="3" builtinId="20"/>
@@ -5357,374 +5801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:G59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="14.5703125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="G12" s="8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="G13" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="8">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="6">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6">
-        <v>40</v>
-      </c>
-      <c r="D15" s="6">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6">
-        <v>15</v>
-      </c>
-      <c r="F15" s="6">
-        <v>15</v>
-      </c>
-      <c r="G15" s="8">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="9">
-        <v>2000</v>
-      </c>
-      <c r="C17" s="9">
-        <v>4000</v>
-      </c>
-      <c r="D17" s="9">
-        <v>600</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1500</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1800</v>
-      </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G10:G11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -5741,50 +5818,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="26" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="26" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="26"/>
       <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="26"/>
       <c r="B7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="26"/>
       <c r="B8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="26" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5804,30 +5881,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="30">
         <v>320</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="30">
         <v>370</v>
       </c>
     </row>
@@ -5837,53 +5914,53 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="31">
         <v>2</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="31">
         <v>2.8000000000000003</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="30">
         <v>4</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="30">
         <v>3</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="27" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5893,122 +5970,122 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="28" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="31">
         <v>5.8000000000000007</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="29">
         <v>1.1999999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="31">
         <v>40</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="31">
         <v>30</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="31">
         <v>2.8000000000000003</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="31">
         <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="30">
         <v>3</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="30">
         <v>3</v>
       </c>
     </row>
@@ -6017,8 +6094,2735 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A11:P30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="6"/>
+    <col min="8" max="9" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="11" max="11" width="9.85546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="6" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="6"/>
+    <col min="15" max="15" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>2</v>
+      </c>
+      <c r="H13" s="47">
+        <v>1300</v>
+      </c>
+      <c r="I13" s="48">
+        <f>(B13*$B$17)+(C13*$C$17)+(D13*$D$17)+(E13*$E$17)</f>
+        <v>792</v>
+      </c>
+      <c r="J13" s="8">
+        <v>72</v>
+      </c>
+      <c r="K13" s="23">
+        <v>72</v>
+      </c>
+      <c r="L13" s="23">
+        <v>48</v>
+      </c>
+      <c r="M13" s="23">
+        <v>4</v>
+      </c>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="H14" s="47">
+        <v>1550</v>
+      </c>
+      <c r="I14" s="48">
+        <f t="shared" ref="I14:I15" si="0">(B14*$B$17)+(C14*$C$17)+(D14*$D$17)+(E14*$E$17)</f>
+        <v>1292</v>
+      </c>
+      <c r="J14" s="8">
+        <v>48</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="22">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="50">
+        <f t="shared" si="0"/>
+        <v>848</v>
+      </c>
+      <c r="J15" s="10">
+        <v>4</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="45">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15">
+        <v>200</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16" s="6">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16">
+        <v>460</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="51">
+        <v>100</v>
+      </c>
+      <c r="C17" s="51">
+        <v>132</v>
+      </c>
+      <c r="D17" s="51">
+        <v>120</v>
+      </c>
+      <c r="E17" s="52">
+        <v>98</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17">
+        <v>245</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6">
+        <v>200</v>
+      </c>
+      <c r="C18" s="6">
+        <v>460</v>
+      </c>
+      <c r="D18" s="6">
+        <v>245</v>
+      </c>
+      <c r="E18" s="8">
+        <v>240</v>
+      </c>
+      <c r="K18" s="6">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18">
+        <v>240</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9">
+        <f>B18-M22</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <f>C18-M23</f>
+        <v>84</v>
+      </c>
+      <c r="D19" s="9">
+        <f>D18-M24</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <f>E18-M25</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="53">
+        <f>O30-B23-C23-D23</f>
+        <v>49568</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" s="24">
+        <f>$K$13*K15+$L$13*L15+$M$13*M15</f>
+        <v>200</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" s="24">
+        <v>200</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="53">
+        <f>I13*J13</f>
+        <v>57024</v>
+      </c>
+      <c r="C23" s="53">
+        <f>I14*J14</f>
+        <v>62016</v>
+      </c>
+      <c r="D23" s="53">
+        <f>I15*J15</f>
+        <v>3392</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23" s="24">
+        <f t="shared" ref="M23:M28" si="1">$K$13*K16+$L$13*L16+$M$13*M16</f>
+        <v>376</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="24">
+        <v>460</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L24"/>
+      <c r="M24" s="24">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="24">
+        <v>245</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L25"/>
+      <c r="M25" s="24">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="24">
+        <v>240</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L26"/>
+      <c r="M26" s="24">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L27"/>
+      <c r="M27" s="24">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O27" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K29" s="6">
+        <v>1300</v>
+      </c>
+      <c r="L29">
+        <v>1550</v>
+      </c>
+      <c r="M29">
+        <v>1000</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L30"/>
+      <c r="M30" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" t="s">
+        <v>68</v>
+      </c>
+      <c r="O30" s="54">
+        <f>K13*K29+L13*L29+M13*M29</f>
+        <v>172000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D171682F-6F48-4B99-B457-F9EECD51F646}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="57">
+        <v>10760</v>
+      </c>
+      <c r="E16" s="57">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="31">
+        <v>47</v>
+      </c>
+      <c r="E21" s="31">
+        <v>50</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="31">
+        <v>54</v>
+      </c>
+      <c r="E22" s="31">
+        <v>59</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="31">
+        <v>15</v>
+      </c>
+      <c r="E23" s="31">
+        <v>0</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0</v>
+      </c>
+      <c r="E24" s="30">
+        <v>7</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="31">
+        <v>50</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="29">
+        <v>4</v>
+      </c>
+      <c r="D30" s="31">
+        <v>59</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="29">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="29">
+        <v>4</v>
+      </c>
+      <c r="D31" s="31">
+        <v>1715</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="29">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="29">
+        <v>4</v>
+      </c>
+      <c r="D32" s="31">
+        <v>500</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="29">
+        <v>4</v>
+      </c>
+      <c r="D33" s="31">
+        <v>196</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="29">
+        <v>4</v>
+      </c>
+      <c r="D34" s="31">
+        <v>0</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="29">
+        <v>4</v>
+      </c>
+      <c r="D35" s="31">
+        <v>7</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="29">
+        <v>4</v>
+      </c>
+      <c r="D36" s="31">
+        <v>50</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="29">
+        <v>4</v>
+      </c>
+      <c r="D37" s="31">
+        <v>59</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="31">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A9:O32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="13.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="12">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="24">
+        <v>1715</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="23">
+        <v>50</v>
+      </c>
+      <c r="K11" s="23">
+        <v>59</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="23">
+        <v>7</v>
+      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>500</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="24">
+        <v>500</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12">
+        <v>200</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="24">
+        <v>196</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="45">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="12">
+        <v>100</v>
+      </c>
+      <c r="C15" s="12">
+        <v>90</v>
+      </c>
+      <c r="D15" s="12">
+        <v>80</v>
+      </c>
+      <c r="E15" s="12">
+        <v>70</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6">
+        <v>10</v>
+      </c>
+      <c r="K15" s="6">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="12">
+        <v>20</v>
+      </c>
+      <c r="C16" s="12">
+        <v>30</v>
+      </c>
+      <c r="D16" s="12">
+        <v>40</v>
+      </c>
+      <c r="E16" s="12">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="6">
+        <v>5</v>
+      </c>
+      <c r="K16" s="6">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="12">
+        <v>80</v>
+      </c>
+      <c r="C17" s="12">
+        <v>60</v>
+      </c>
+      <c r="D17" s="12">
+        <v>40</v>
+      </c>
+      <c r="E17" s="12">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="54">
+        <f>J11*J32+K11*K32+L11*L32+M11*M32</f>
+        <v>10800</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L22"/>
+      <c r="M22" s="24">
+        <f>$J$11*J13+$K$11*K13+$L$11*L13+$M$11*M13</f>
+        <v>50</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" s="45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L23"/>
+      <c r="M23" s="24">
+        <f>$J$11*J14+$K$11*K14+$L$11*L14+$M$11*M14</f>
+        <v>59</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L24"/>
+      <c r="M24" s="24">
+        <f>$J$11*J15+$K$11*K15+$L$11*L15+$M$11*M15</f>
+        <v>1715</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L25"/>
+      <c r="M25" s="24">
+        <f>$J$11*J16+$K$11*K16+$L$11*L16+$M$11*M16</f>
+        <v>500</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L26"/>
+      <c r="M26" s="24">
+        <f>$J$11*J17+$K$11*K17+$L$11*L17+$M$11*M17</f>
+        <v>196</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L27"/>
+      <c r="M27" s="24">
+        <f>$J$11*J18+$K$11*K18+$L$11*L18+$M$11*M18</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L28"/>
+      <c r="M28" s="24">
+        <f>$J$11*J19+$K$11*K19+$L$11*L19+$M$11*M19</f>
+        <v>7</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M29" s="24">
+        <f t="shared" ref="M29:M30" si="0">$J$11*J20+$K$11*K20+$L$11*L20+$M$11*M20</f>
+        <v>50</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M30" s="24">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>67</v>
+      </c>
+      <c r="N31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" s="54">
+        <f>J11*J32+K11*K32+L11*L32+M11*M32</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J32" s="12">
+        <v>100</v>
+      </c>
+      <c r="K32" s="12">
+        <v>90</v>
+      </c>
+      <c r="L32" s="12">
+        <v>80</v>
+      </c>
+      <c r="M32" s="12">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2242F4-66E8-45FF-8F04-15EDE33D0EA3}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="63">
+        <v>393000</v>
+      </c>
+      <c r="E16" s="63">
+        <v>393000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="31">
+        <v>96</v>
+      </c>
+      <c r="E22" s="31">
+        <v>96</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="31">
+        <v>12</v>
+      </c>
+      <c r="E23" s="31">
+        <v>12</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="31">
+        <v>0</v>
+      </c>
+      <c r="E24" s="31">
+        <v>0</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="30">
+        <v>1</v>
+      </c>
+      <c r="E25" s="30">
+        <v>1</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="29">
+        <v>5</v>
+      </c>
+      <c r="D30" s="64">
+        <v>299.5</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="29">
+        <v>5</v>
+      </c>
+      <c r="D31" s="64">
+        <v>112.9</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="29">
+        <v>287.10000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="29">
+        <v>5</v>
+      </c>
+      <c r="D32" s="64">
+        <v>62.9</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="29">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="29">
+        <v>5</v>
+      </c>
+      <c r="D33" s="65">
+        <v>3975</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="29">
+        <v>5</v>
+      </c>
+      <c r="D34" s="64">
+        <v>100</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="29">
+        <v>5</v>
+      </c>
+      <c r="D35" s="65">
+        <v>0</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="29">
+        <v>5</v>
+      </c>
+      <c r="D36" s="65">
+        <v>96</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="65">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="29">
+        <v>5</v>
+      </c>
+      <c r="D37" s="65">
+        <v>12</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="29">
+        <v>5</v>
+      </c>
+      <c r="D38" s="65">
+        <v>0</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="29">
+        <v>5</v>
+      </c>
+      <c r="D39" s="65">
+        <v>1</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A10:O60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="14.5703125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="6"/>
+    <col min="15" max="15" width="15.140625" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="I11" s="23">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23">
+        <v>96</v>
+      </c>
+      <c r="K11" s="23">
+        <v>12</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="G12" s="8">
+        <v>300</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="G13" s="8">
+        <v>400</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J13" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>120</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6">
+        <v>15</v>
+      </c>
+      <c r="F15" s="6">
+        <v>15</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4000</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="L15" s="6">
+        <v>2</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="8">
+        <v>100</v>
+      </c>
+      <c r="I16" s="6">
+        <v>20</v>
+      </c>
+      <c r="J16" s="6">
+        <v>40</v>
+      </c>
+      <c r="K16" s="6">
+        <v>10</v>
+      </c>
+      <c r="L16" s="6">
+        <v>15</v>
+      </c>
+      <c r="M16" s="6">
+        <v>15</v>
+      </c>
+      <c r="N16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4000</v>
+      </c>
+      <c r="D17" s="9">
+        <v>600</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1800</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="I17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="I18" s="60">
+        <v>1</v>
+      </c>
+      <c r="J18" s="60">
+        <v>0</v>
+      </c>
+      <c r="K18" s="60">
+        <v>0</v>
+      </c>
+      <c r="L18" s="60">
+        <v>0</v>
+      </c>
+      <c r="M18" s="60">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="I19" s="60">
+        <v>0</v>
+      </c>
+      <c r="J19" s="60">
+        <v>1</v>
+      </c>
+      <c r="K19" s="60">
+        <v>0</v>
+      </c>
+      <c r="L19" s="60">
+        <v>0</v>
+      </c>
+      <c r="M19" s="60">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="I20" s="60">
+        <v>0</v>
+      </c>
+      <c r="J20" s="60">
+        <v>0</v>
+      </c>
+      <c r="K20" s="60">
+        <v>1</v>
+      </c>
+      <c r="L20" s="60">
+        <v>0</v>
+      </c>
+      <c r="M20" s="60">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="I21" s="60">
+        <v>0</v>
+      </c>
+      <c r="J21" s="60">
+        <v>0</v>
+      </c>
+      <c r="K21" s="60">
+        <v>0</v>
+      </c>
+      <c r="L21" s="60">
+        <v>1</v>
+      </c>
+      <c r="M21" s="60">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="I22" s="60">
+        <v>0</v>
+      </c>
+      <c r="J22" s="60">
+        <v>0</v>
+      </c>
+      <c r="K22" s="60">
+        <v>0</v>
+      </c>
+      <c r="L22" s="60">
+        <v>0</v>
+      </c>
+      <c r="M22" s="60">
+        <v>1</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="61">
+        <f>$I$11*I13+$J$11*J13+$K$11*K13+$L$11*L13+$M$11*M13</f>
+        <v>299.5</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="61">
+        <f t="shared" ref="M24:M32" si="0">$I$11*I14+$J$11*J14+$K$11*K14+$L$11*L14+$M$11*M14</f>
+        <v>112.9</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="45">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="61">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="62">
+        <f t="shared" si="0"/>
+        <v>3975</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="45">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="61">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="62">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="62">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O30" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="M32" s="62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" t="s">
+        <v>67</v>
+      </c>
+      <c r="N33" t="s">
+        <v>68</v>
+      </c>
+      <c r="O33" s="46">
+        <f>I34*I11+J34*J11+K34*K11+L34*L11+M34*M11</f>
+        <v>393000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="I34" s="9">
+        <v>2000</v>
+      </c>
+      <c r="J34" s="9">
+        <v>4000</v>
+      </c>
+      <c r="K34" s="9">
+        <v>600</v>
+      </c>
+      <c r="L34" s="9">
+        <v>1500</v>
+      </c>
+      <c r="M34" s="9">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G10:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:A29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6041,10 +8845,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="23">
         <v>2.8000000000000003</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="23">
         <v>3</v>
       </c>
     </row>
@@ -6115,106 +8919,106 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="24">
         <f>A2*A4+B2*B4</f>
         <v>5.8000000000000007</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="24">
         <v>7</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="23"/>
       <c r="G12" t="s">
         <v>70</v>
       </c>
       <c r="I12" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="32">
         <v>16.399999999999999</v>
       </c>
       <c r="K12">
         <v>25</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="32">
         <f>J12*K12</f>
         <v>409.99999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="24">
         <f>A2*A5+B2*B5</f>
         <v>40</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="24">
         <v>40</v>
       </c>
-      <c r="F13" s="33"/>
+      <c r="F13" s="24"/>
       <c r="G13" t="s">
         <v>71</v>
       </c>
       <c r="I13" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="34">
         <v>20</v>
       </c>
       <c r="K13">
         <v>10</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="32">
         <f>J13*K13</f>
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="24">
         <f>A2*A6+B2*B6</f>
         <v>30</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="24">
         <v>30</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="25"/>
       <c r="G14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="24">
         <f>A2*A7+B2*B7</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="33">
-        <v>0</v>
-      </c>
-      <c r="M15" s="44"/>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="24">
         <f>A2*A8+B2*B8</f>
         <v>3</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="24">
         <v>0</v>
       </c>
     </row>
@@ -6225,7 +9029,7 @@
       <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="33">
         <f>A2*A10+B2*B10</f>
         <v>370</v>
       </c>
@@ -6236,11 +9040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A16:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E23"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6284,7 +9088,7 @@
         <f>K20-L20-M20</f>
         <v>3</v>
       </c>
-      <c r="O20" s="45" t="s">
+      <c r="O20" s="36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6308,7 +9112,7 @@
         <f>K21-L21-M21</f>
         <v>2</v>
       </c>
-      <c r="O21" s="45" t="s">
+      <c r="O21" s="36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6339,7 +9143,205 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>20</v>
+      </c>
+      <c r="B2" s="23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="24">
+        <f>$A$2*A4 +$B$2*B4</f>
+        <v>100</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="24">
+        <f t="shared" ref="B11:B14" si="0">$A$2*A5 +$B$2*B5</f>
+        <v>80</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="24">
+        <v>60</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="37">
+        <f>A2*A16+B2*B16</f>
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -6356,50 +9358,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="26" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="26" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="26" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="26"/>
       <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="26"/>
       <c r="B7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="26"/>
       <c r="B8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="26" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6419,30 +9421,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="30">
         <v>14</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="30">
         <v>180</v>
       </c>
     </row>
@@ -6452,53 +9454,53 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="31">
         <v>2</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="31">
         <v>20</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="30">
         <v>4</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="30">
         <v>60</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="27" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6508,322 +9510,123 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="28" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="31">
         <v>100</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="31">
         <v>80</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="31">
         <v>20</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="31">
         <v>20</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="31">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="30">
         <v>60</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="30">
         <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
-        <v>20</v>
-      </c>
-      <c r="B2" s="32">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>80</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="33">
-        <f>$A$2*A4 +$B$2*B4</f>
-        <v>100</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="33">
-        <f t="shared" ref="B11:B14" si="0">$A$2*A5 +$B$2*B5</f>
-        <v>80</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="33">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="33">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="33">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="33">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="46">
-        <f>A2*A16+B2*B16</f>
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6832,20 +9635,337 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A16:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F0FAF0-5D9F-4E06-A9DB-C333BB53D3A1}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="30">
+        <v>14</v>
+      </c>
+      <c r="E16" s="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="31">
+        <v>4</v>
+      </c>
+      <c r="E21" s="31">
+        <v>4</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="30">
+        <v>2</v>
+      </c>
+      <c r="E22" s="30">
+        <v>2</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="31">
+        <v>16</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="31">
+        <v>10</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="31">
+        <v>16</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="31">
+        <v>8</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="31">
+        <v>2</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="30">
+        <v>8</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="30">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A16:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="8" width="9.140625" style="6"/>
+    <col min="9" max="9" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
@@ -6855,16 +9975,32 @@
       <c r="D16" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>0</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
+        <v>4</v>
+      </c>
+      <c r="G17" s="23">
+        <v>2</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
@@ -6877,8 +10013,12 @@
       <c r="D18" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
@@ -6891,8 +10031,20 @@
       <c r="D19" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
@@ -6905,8 +10057,20 @@
       <c r="D20" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -6919,11 +10083,35 @@
       <c r="D21" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
@@ -6932,6 +10120,140 @@
       </c>
       <c r="C23" s="6">
         <v>3</v>
+      </c>
+      <c r="D23"/>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26"/>
+      <c r="G26" s="24">
+        <f>$F$17*F19+$G$17*G19</f>
+        <v>16</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+      <c r="G27" s="24">
+        <f t="shared" ref="G27:G31" si="0">$F$17*F20+$G$17*G20</f>
+        <v>10</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28"/>
+      <c r="G28" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29"/>
+      <c r="G29" s="24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30"/>
+      <c r="G30" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31"/>
+      <c r="G31" s="24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34"/>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="44">
+        <f>F17*F32+G17*G32</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6940,410 +10262,363 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:J22"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9620BE89-674D-46E7-95C5-37B1022BE913}">
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="19">
-        <v>2</v>
-      </c>
-      <c r="C13" s="20">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="57">
+        <v>172000</v>
+      </c>
+      <c r="E16" s="57">
+        <v>172000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="31">
+        <v>72</v>
+      </c>
+      <c r="E21" s="31">
+        <v>72</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="31">
+        <v>48</v>
+      </c>
+      <c r="E22" s="31">
+        <v>48</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="30">
+        <v>4</v>
+      </c>
+      <c r="E23" s="30">
+        <v>4</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="31">
+        <v>200</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="29">
         <v>3</v>
       </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <v>2</v>
-      </c>
-      <c r="H13" s="22">
-        <v>1300</v>
-      </c>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="22">
+      <c r="D29" s="31">
+        <v>376</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="29">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="29">
+        <v>3</v>
+      </c>
+      <c r="D30" s="31">
+        <v>244</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="29">
         <v>1</v>
       </c>
-      <c r="C14" s="6">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="29">
         <v>3</v>
       </c>
-      <c r="D14" s="6">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2</v>
-      </c>
-      <c r="H14" s="22">
-        <v>1550</v>
-      </c>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="25">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="D31" s="31">
+        <v>240</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="29">
+        <v>3</v>
+      </c>
+      <c r="D32" s="31">
+        <v>72</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="31">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="29">
+        <v>3</v>
+      </c>
+      <c r="D33" s="31">
+        <v>48</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="29">
+        <v>3</v>
+      </c>
+      <c r="D34" s="31">
         <v>4</v>
       </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="20">
-        <v>100</v>
-      </c>
-      <c r="C17" s="20">
-        <v>132</v>
-      </c>
-      <c r="D17" s="20">
-        <v>120</v>
-      </c>
-      <c r="E17" s="21">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="6">
-        <v>200</v>
-      </c>
-      <c r="C18" s="6">
-        <v>460</v>
-      </c>
-      <c r="D18" s="6">
-        <v>245</v>
-      </c>
-      <c r="E18" s="8">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B11:E11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="13.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="12">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12">
-        <v>20</v>
-      </c>
-      <c r="D11" s="12">
-        <v>30</v>
-      </c>
-      <c r="E11" s="12">
-        <v>5</v>
-      </c>
-      <c r="F11" s="12">
-        <v>2000</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="12">
-        <v>5</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="E34" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="31">
         <v>4</v>
       </c>
-      <c r="D12" s="12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="12">
-        <v>500</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12">
-        <v>3</v>
-      </c>
-      <c r="E13" s="12">
-        <v>4</v>
-      </c>
-      <c r="F13" s="12">
-        <v>200</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="12">
-        <v>100</v>
-      </c>
-      <c r="C15" s="12">
-        <v>90</v>
-      </c>
-      <c r="D15" s="12">
-        <v>80</v>
-      </c>
-      <c r="E15" s="12">
-        <v>70</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="12">
-        <v>20</v>
-      </c>
-      <c r="C16" s="12">
-        <v>30</v>
-      </c>
-      <c r="D16" s="12">
-        <v>40</v>
-      </c>
-      <c r="E16" s="12">
-        <v>50</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="12">
-        <v>80</v>
-      </c>
-      <c r="C17" s="12">
-        <v>60</v>
-      </c>
-      <c r="D17" s="12">
-        <v>40</v>
-      </c>
-      <c r="E17" s="12">
-        <v>20</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>